--- a/Code/Results/Cases/Case_5_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.129598972994103</v>
+        <v>0.5123330574875524</v>
       </c>
       <c r="C2">
-        <v>0.1083808816708611</v>
+        <v>0.1191298221591452</v>
       </c>
       <c r="D2">
-        <v>0.07375425990436213</v>
+        <v>0.04629170208878008</v>
       </c>
       <c r="E2">
-        <v>0.06423503232496941</v>
+        <v>0.1009989519193013</v>
       </c>
       <c r="F2">
-        <v>0.5409226866603447</v>
+        <v>0.9232754284974547</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3982661111623074</v>
+        <v>0.8623522309721174</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.995417829162875</v>
+        <v>0.3285408004581996</v>
       </c>
       <c r="L2">
-        <v>0.2608043701797413</v>
+        <v>0.2043011126019394</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.663215866237095</v>
+        <v>3.289596083056196</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9817746118083619</v>
+        <v>0.4690635668912364</v>
       </c>
       <c r="C3">
-        <v>0.1043842989973527</v>
+        <v>0.1177010559591807</v>
       </c>
       <c r="D3">
-        <v>0.06755957384769573</v>
+        <v>0.04408252612759611</v>
       </c>
       <c r="E3">
-        <v>0.06012325209504965</v>
+        <v>0.1005822379082062</v>
       </c>
       <c r="F3">
-        <v>0.5215918872731464</v>
+        <v>0.9252923456370326</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4028725888960381</v>
+        <v>0.8696967313908743</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8686677259931912</v>
+        <v>0.2894826279242011</v>
       </c>
       <c r="L3">
-        <v>0.2301100906982896</v>
+        <v>0.1968817526097695</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.647162718424255</v>
+        <v>3.310028172141813</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8911811304842843</v>
+        <v>0.4425834031724776</v>
       </c>
       <c r="C4">
-        <v>0.1019337793065347</v>
+        <v>0.1168192702539699</v>
       </c>
       <c r="D4">
-        <v>0.0637415859658006</v>
+        <v>0.04271260761978368</v>
       </c>
       <c r="E4">
-        <v>0.05768916813805447</v>
+        <v>0.1003781762352993</v>
       </c>
       <c r="F4">
-        <v>0.5107955910536575</v>
+        <v>0.9270721256038499</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4065258723047442</v>
+        <v>0.8746426740282551</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7908629719012765</v>
+        <v>0.2654701821498975</v>
       </c>
       <c r="L4">
-        <v>0.2114877573435905</v>
+        <v>0.1924331771718357</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.640805465161762</v>
+        <v>3.324370843595332</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8542941339275956</v>
+        <v>0.4318152270989515</v>
       </c>
       <c r="C5">
-        <v>0.1009357738112726</v>
+        <v>0.1164588272108986</v>
       </c>
       <c r="D5">
-        <v>0.06218179997770079</v>
+        <v>0.04215099352227725</v>
       </c>
       <c r="E5">
-        <v>0.05671892092310671</v>
+        <v>0.1003080642353993</v>
       </c>
       <c r="F5">
-        <v>0.5066533967881455</v>
+        <v>0.9279335626858796</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4082146074665829</v>
+        <v>0.876767926181941</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7591520213913299</v>
+        <v>0.2556778000435287</v>
       </c>
       <c r="L5">
-        <v>0.2039504446668587</v>
+        <v>0.190647320518039</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.639058378989503</v>
+        <v>3.330667545682701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8481705720157606</v>
+        <v>0.430028571929455</v>
       </c>
       <c r="C6">
-        <v>0.1007700850481754</v>
+        <v>0.1163989098053122</v>
       </c>
       <c r="D6">
-        <v>0.06192255331736618</v>
+        <v>0.04205753573005211</v>
       </c>
       <c r="E6">
-        <v>0.05655908888129169</v>
+        <v>0.1002972106128119</v>
       </c>
       <c r="F6">
-        <v>0.5059807820550546</v>
+        <v>0.928084828309558</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4085068887950776</v>
+        <v>0.8771274509293043</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7538858665978125</v>
+        <v>0.2540513695668665</v>
       </c>
       <c r="L6">
-        <v>0.2027018475546782</v>
+        <v>0.1903524119767752</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.638818192022143</v>
+        <v>3.331740404910732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8906835517097704</v>
+        <v>0.4424380869089646</v>
       </c>
       <c r="C7">
-        <v>0.1019203177417722</v>
+        <v>0.1168144136428069</v>
       </c>
       <c r="D7">
-        <v>0.06372056641787793</v>
+        <v>0.04270504706907019</v>
       </c>
       <c r="E7">
-        <v>0.05767599676964608</v>
+        <v>0.1003771778375473</v>
       </c>
       <c r="F7">
-        <v>0.5107387018112846</v>
+        <v>0.9270831918951785</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.406547846988456</v>
+        <v>0.8746708915794237</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7904353394799557</v>
+        <v>0.2653381467110876</v>
       </c>
       <c r="L7">
-        <v>0.2113859045443434</v>
+        <v>0.1924089831580744</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.640778534746104</v>
+        <v>3.324453933202605</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.07858580674673</v>
+        <v>0.4973959915839998</v>
       </c>
       <c r="C8">
-        <v>0.107001994729103</v>
+        <v>0.1186381373422165</v>
       </c>
       <c r="D8">
-        <v>0.07162113952670524</v>
+        <v>0.04553279084149864</v>
       </c>
       <c r="E8">
-        <v>0.06279780747133401</v>
+        <v>0.1008445281495263</v>
       </c>
       <c r="F8">
-        <v>0.5340270983999815</v>
+        <v>0.9238585112105682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3996786401258667</v>
+        <v>0.86479404598035</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9517039429362626</v>
+        <v>0.3150802177987089</v>
       </c>
       <c r="L8">
-        <v>0.2501714382291311</v>
+        <v>0.2017207683886255</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.656931972641061</v>
+        <v>3.296268040646154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.449036916548948</v>
+        <v>0.6058367801742008</v>
       </c>
       <c r="C9">
-        <v>0.1170070703878139</v>
+        <v>0.1221775609763398</v>
       </c>
       <c r="D9">
-        <v>0.08701475442649809</v>
+        <v>0.05097010280109515</v>
       </c>
       <c r="E9">
-        <v>0.07361345926421592</v>
+        <v>0.1021713803384721</v>
       </c>
       <c r="F9">
-        <v>0.5887994224184396</v>
+        <v>0.9218304246864335</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3931056721791037</v>
+        <v>0.8488880017013827</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.268607568825843</v>
+        <v>0.4123613429557906</v>
       </c>
       <c r="L9">
-        <v>0.328244688808681</v>
+        <v>0.2208272049867048</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.718107837980938</v>
+        <v>3.255257870112246</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723348927115467</v>
+        <v>0.6858895072660971</v>
       </c>
       <c r="C10">
-        <v>0.1244024905741981</v>
+        <v>0.1247543254560171</v>
       </c>
       <c r="D10">
-        <v>0.09828726926880904</v>
+        <v>0.05489818443249561</v>
       </c>
       <c r="E10">
-        <v>0.08210887865022798</v>
+        <v>0.1033957758698918</v>
       </c>
       <c r="F10">
-        <v>0.6354612847587759</v>
+        <v>0.9229603830097588</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3929984813202339</v>
+        <v>0.8393126654137504</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.502592429777991</v>
+        <v>0.4836531176305527</v>
       </c>
       <c r="L10">
-        <v>0.3871869192659716</v>
+        <v>0.2353788483306829</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.783587220930684</v>
+        <v>3.233827271308058</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.848830487434327</v>
+        <v>0.722385307784208</v>
       </c>
       <c r="C11">
-        <v>0.1277815924776888</v>
+        <v>0.1259211991945008</v>
       </c>
       <c r="D11">
-        <v>0.1034129998367703</v>
+        <v>0.05667050661836726</v>
       </c>
       <c r="E11">
-        <v>0.08611148824943982</v>
+        <v>0.1040068576514059</v>
       </c>
       <c r="F11">
-        <v>0.6582892530480962</v>
+        <v>0.9240437183541133</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3940974061621603</v>
+        <v>0.8354149840221297</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.609470951661962</v>
+        <v>0.5160424854632311</v>
       </c>
       <c r="L11">
-        <v>0.4144287169842045</v>
+        <v>0.2421101631597224</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.818438722767183</v>
+        <v>3.225968220368173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.896466746550232</v>
+        <v>0.7362161328598802</v>
       </c>
       <c r="C12">
-        <v>0.1290637565320978</v>
+        <v>0.1263622761533014</v>
       </c>
       <c r="D12">
-        <v>0.1053541474595363</v>
+        <v>0.05733951892219835</v>
       </c>
       <c r="E12">
-        <v>0.08764865471696126</v>
+        <v>0.104246022671969</v>
       </c>
       <c r="F12">
-        <v>0.6671822097152997</v>
+        <v>0.9245358177941512</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3946895305968141</v>
+        <v>0.8340049254962807</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.650021865463515</v>
+        <v>0.5283010296031989</v>
       </c>
       <c r="L12">
-        <v>0.4248135117062901</v>
+        <v>0.2446751393164277</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.832418419883311</v>
+        <v>3.223264026484543</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.886201809261649</v>
+        <v>0.7332369553322451</v>
       </c>
       <c r="C13">
-        <v>0.1287874979194896</v>
+        <v>0.1262673180628369</v>
       </c>
       <c r="D13">
-        <v>0.1049360724622943</v>
+        <v>0.0571955302693965</v>
       </c>
       <c r="E13">
-        <v>0.08731661680157998</v>
+        <v>0.1041941692876946</v>
       </c>
       <c r="F13">
-        <v>0.6652555965177456</v>
+        <v>0.9244261945103531</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3945539966911156</v>
+        <v>0.8343056751670161</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.641284758854738</v>
+        <v>0.5256612364970294</v>
       </c>
       <c r="L13">
-        <v>0.4225737740439115</v>
+        <v>0.2441220168105218</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.829371955644774</v>
+        <v>3.223834330453514</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.852747049594484</v>
+        <v>0.7235229688530467</v>
       </c>
       <c r="C14">
-        <v>0.1278870227440407</v>
+        <v>0.125957502917224</v>
       </c>
       <c r="D14">
-        <v>0.1035726935638266</v>
+        <v>0.056725589480358</v>
       </c>
       <c r="E14">
-        <v>0.08623751200499541</v>
+        <v>0.1040263784487507</v>
       </c>
       <c r="F14">
-        <v>0.659015792725846</v>
+        <v>0.9240825630160359</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.394142528219696</v>
+        <v>0.8352976566218544</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.612805437388744</v>
+        <v>0.5170511392270498</v>
       </c>
       <c r="L14">
-        <v>0.4152816556417633</v>
+        <v>0.2423208656733635</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.819572842587036</v>
+        <v>3.225740295690258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.832271145853611</v>
+        <v>0.7175742369856835</v>
       </c>
       <c r="C15">
-        <v>0.127335804026643</v>
+        <v>0.1257676280814763</v>
       </c>
       <c r="D15">
-        <v>0.1027376176987005</v>
+        <v>0.05643745918342091</v>
       </c>
       <c r="E15">
-        <v>0.08557937445826624</v>
+        <v>0.1039246119808652</v>
       </c>
       <c r="F15">
-        <v>0.6552266573029613</v>
+        <v>0.923882739800213</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3939137480182566</v>
+        <v>0.8359138578320753</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.595371709380885</v>
+        <v>0.5117763272510558</v>
       </c>
       <c r="L15">
-        <v>0.4108242220266192</v>
+        <v>0.2412196861464508</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.813674130293094</v>
+        <v>3.226943161381456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.715164009993657</v>
+        <v>0.6835059536810775</v>
       </c>
       <c r="C16">
-        <v>0.1241819938391515</v>
+        <v>0.1246779581646393</v>
       </c>
       <c r="D16">
-        <v>0.09795228515436349</v>
+        <v>0.05478206295090615</v>
       </c>
       <c r="E16">
-        <v>0.08185021178594809</v>
+        <v>0.1033569273259012</v>
       </c>
       <c r="F16">
-        <v>0.6340031763237661</v>
+        <v>0.9229010403202125</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.392950677733829</v>
+        <v>0.839576609847299</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.49561776430258</v>
+        <v>0.4815355056018973</v>
       </c>
       <c r="L16">
-        <v>0.3854158403507029</v>
+        <v>0.2349411811621849</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.781416030759289</v>
+        <v>3.23437891586687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.643513892576919</v>
+        <v>0.6626259621274642</v>
       </c>
       <c r="C17">
-        <v>0.1222513410177797</v>
+        <v>0.124008100175935</v>
       </c>
       <c r="D17">
-        <v>0.09501639376708937</v>
+        <v>0.05376277428632648</v>
       </c>
       <c r="E17">
-        <v>0.07959895699192288</v>
+        <v>0.1030225144908954</v>
       </c>
       <c r="F17">
-        <v>0.6214059767899158</v>
+        <v>0.9224446124916739</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3926613777743384</v>
+        <v>0.8419409580603769</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.434544643458622</v>
+        <v>0.4629726385188064</v>
       </c>
       <c r="L17">
-        <v>0.3699434370751646</v>
+        <v>0.2311180674697937</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.762961109398674</v>
+        <v>3.239424615939384</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.602366895180126</v>
+        <v>0.6506238634292743</v>
       </c>
       <c r="C18">
-        <v>0.1211422539026898</v>
+        <v>0.1236223175768103</v>
       </c>
       <c r="D18">
-        <v>0.09332751076382095</v>
+        <v>0.05317513572823884</v>
       </c>
       <c r="E18">
-        <v>0.07831698097102446</v>
+        <v>0.1028352621047048</v>
       </c>
       <c r="F18">
-        <v>0.6143099560214011</v>
+        <v>0.922235673804785</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3926023081539682</v>
+        <v>0.8433439940478991</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.399457203207305</v>
+        <v>0.4522918881024509</v>
       </c>
       <c r="L18">
-        <v>0.3610840053882072</v>
+        <v>0.2289296326022878</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.752819592998947</v>
+        <v>3.24250464347989</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.588445705728986</v>
+        <v>0.6465614738901877</v>
       </c>
       <c r="C19">
-        <v>0.1207669594341567</v>
+        <v>0.1234916135818835</v>
       </c>
       <c r="D19">
-        <v>0.09275563000479536</v>
+        <v>0.05297593693371994</v>
       </c>
       <c r="E19">
-        <v>0.0778850914475413</v>
+        <v>0.1027727369326428</v>
       </c>
       <c r="F19">
-        <v>0.6119325154449484</v>
+        <v>0.922174134349838</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3926004200986419</v>
+        <v>0.8438264440853338</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.387583652900588</v>
+        <v>0.4486749220790784</v>
       </c>
       <c r="L19">
-        <v>0.3580909908133521</v>
+        <v>0.2281904755096065</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.749465550486946</v>
+        <v>3.243578034833888</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.651134385911746</v>
+        <v>0.6648479000901659</v>
       </c>
       <c r="C20">
-        <v>0.1224567171759858</v>
+        <v>0.124079459457036</v>
       </c>
       <c r="D20">
-        <v>0.09532894560945948</v>
+        <v>0.05387142138810219</v>
       </c>
       <c r="E20">
-        <v>0.07983726182936124</v>
+        <v>0.1030575863259422</v>
       </c>
       <c r="F20">
-        <v>0.6227313635245011</v>
+        <v>0.9224876540219</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3926809892156626</v>
+        <v>0.8416848056750617</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.441041712552305</v>
+        <v>0.4649490935112226</v>
       </c>
       <c r="L20">
-        <v>0.3715863217153128</v>
+        <v>0.2315239564142075</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.7648763072024</v>
+        <v>3.238869082480164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.862570131662238</v>
+        <v>0.7263759189740995</v>
       </c>
       <c r="C21">
-        <v>0.1281514407156976</v>
+        <v>0.1260485248846663</v>
       </c>
       <c r="D21">
-        <v>0.1039731432328637</v>
+        <v>0.05686368047020096</v>
       </c>
       <c r="E21">
-        <v>0.08655387524018465</v>
+        <v>0.1040754521786482</v>
       </c>
       <c r="F21">
-        <v>0.660841678591872</v>
+        <v>0.9241812741799009</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.394258519335132</v>
+        <v>0.8350044987010321</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.621168249879844</v>
+        <v>0.5195803177523715</v>
       </c>
       <c r="L21">
-        <v>0.4174215967256885</v>
+        <v>0.2428494746225454</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.822429403127302</v>
+        <v>3.225173088543499</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.001459790501656</v>
+        <v>0.7666498039224052</v>
       </c>
       <c r="C22">
-        <v>0.1318884887737823</v>
+        <v>0.1273307884702035</v>
       </c>
       <c r="D22">
-        <v>0.1096237077340518</v>
+        <v>0.05880687897975179</v>
       </c>
       <c r="E22">
-        <v>0.09106951534475272</v>
+        <v>0.104785918712075</v>
       </c>
       <c r="F22">
-        <v>0.6872067967167084</v>
+        <v>0.9257653160496915</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3963209306674926</v>
+        <v>0.8310227090928421</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.739355958232665</v>
+        <v>0.5552461858649167</v>
       </c>
       <c r="L22">
-        <v>0.4477830439066963</v>
+        <v>0.250344418626895</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.864630624625903</v>
+        <v>3.217806608061721</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.927260658264771</v>
+        <v>0.7451494730674142</v>
       </c>
       <c r="C23">
-        <v>0.1298924109507382</v>
+        <v>0.1266468539490546</v>
       </c>
       <c r="D23">
-        <v>0.1066076351842753</v>
+        <v>0.05777090356400549</v>
       </c>
       <c r="E23">
-        <v>0.08864734560502541</v>
+        <v>0.1044025964409272</v>
       </c>
       <c r="F23">
-        <v>0.6729954909389377</v>
+        <v>0.9248762237614585</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3951219947750673</v>
+        <v>0.833112705668583</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.676229046913505</v>
+        <v>0.5362143955426291</v>
       </c>
       <c r="L23">
-        <v>0.4315389337243403</v>
+        <v>0.2463357401641701</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.841668536044494</v>
+        <v>3.22159320915739</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.647689020237522</v>
+        <v>0.6638433553811751</v>
       </c>
       <c r="C24">
-        <v>0.1223638639339555</v>
+        <v>0.1240472000192128</v>
       </c>
       <c r="D24">
-        <v>0.09518764407065561</v>
+        <v>0.05382230712622516</v>
       </c>
       <c r="E24">
-        <v>0.07972948602081686</v>
+        <v>0.1030417147550224</v>
       </c>
       <c r="F24">
-        <v>0.6221317019263779</v>
+        <v>0.9224680283973328</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3926717896339085</v>
+        <v>0.8418004759198112</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.438104313044079</v>
+        <v>0.4640555652966327</v>
       </c>
       <c r="L24">
-        <v>0.3708434624204529</v>
+        <v>0.2313404243502077</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.764008991148074</v>
+        <v>3.23911968100424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.348515608233726</v>
+        <v>0.5764318291403754</v>
       </c>
       <c r="C25">
-        <v>0.1142941622376199</v>
+        <v>0.1212241234455718</v>
       </c>
       <c r="D25">
-        <v>0.08285869223808362</v>
+        <v>0.04951081336775331</v>
       </c>
       <c r="E25">
-        <v>0.07059707097374357</v>
+        <v>0.1017685615904149</v>
       </c>
       <c r="F25">
-        <v>0.5729207255144004</v>
+        <v>0.9219190703958162</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3940939335737035</v>
+        <v>0.8528203267250802</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.182731581564326</v>
+        <v>0.3860744843158557</v>
       </c>
       <c r="L25">
-        <v>0.3068729197880486</v>
+        <v>0.2155679991493287</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.698146346369072</v>
+        <v>3.264824820660493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5123330574875524</v>
+        <v>1.129598972994188</v>
       </c>
       <c r="C2">
-        <v>0.1191298221591452</v>
+        <v>0.1083808816710956</v>
       </c>
       <c r="D2">
-        <v>0.04629170208878008</v>
+        <v>0.07375425990429108</v>
       </c>
       <c r="E2">
-        <v>0.1009989519193013</v>
+        <v>0.06423503232498362</v>
       </c>
       <c r="F2">
-        <v>0.9232754284974547</v>
+        <v>0.5409226866603376</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8623522309721174</v>
+        <v>0.3982661111623003</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3285408004581996</v>
+        <v>0.995417829162875</v>
       </c>
       <c r="L2">
-        <v>0.2043011126019394</v>
+        <v>0.2608043701797413</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.289596083056196</v>
+        <v>1.663215866237067</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4690635668912364</v>
+        <v>0.9817746118082482</v>
       </c>
       <c r="C3">
-        <v>0.1177010559591807</v>
+        <v>0.1043842989974237</v>
       </c>
       <c r="D3">
-        <v>0.04408252612759611</v>
+        <v>0.067559573848051</v>
       </c>
       <c r="E3">
-        <v>0.1005822379082062</v>
+        <v>0.06012325209507097</v>
       </c>
       <c r="F3">
-        <v>0.9252923456370326</v>
+        <v>0.5215918872731251</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8696967313908743</v>
+        <v>0.4028725888960309</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2894826279242011</v>
+        <v>0.868667725993248</v>
       </c>
       <c r="L3">
-        <v>0.1968817526097695</v>
+        <v>0.2301100906983606</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.310028172141813</v>
+        <v>1.647162718424283</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4425834031724776</v>
+        <v>0.8911811304842843</v>
       </c>
       <c r="C4">
-        <v>0.1168192702539699</v>
+        <v>0.1019337793064707</v>
       </c>
       <c r="D4">
-        <v>0.04271260761978368</v>
+        <v>0.0637415859654098</v>
       </c>
       <c r="E4">
-        <v>0.1003781762352993</v>
+        <v>0.05768916813807579</v>
       </c>
       <c r="F4">
-        <v>0.9270721256038499</v>
+        <v>0.5107955910536361</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8746426740282551</v>
+        <v>0.4065258723047371</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2654701821498975</v>
+        <v>0.7908629719013618</v>
       </c>
       <c r="L4">
-        <v>0.1924331771718357</v>
+        <v>0.2114877573435336</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.324370843595332</v>
+        <v>1.640805465161776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4318152270989515</v>
+        <v>0.854294133927624</v>
       </c>
       <c r="C5">
-        <v>0.1164588272108986</v>
+        <v>0.1009357738112726</v>
       </c>
       <c r="D5">
-        <v>0.04215099352227725</v>
+        <v>0.06218179997772211</v>
       </c>
       <c r="E5">
-        <v>0.1003080642353993</v>
+        <v>0.05671892092311026</v>
       </c>
       <c r="F5">
-        <v>0.9279335626858796</v>
+        <v>0.5066533967881384</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.876767926181941</v>
+        <v>0.4082146074665864</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2556778000435287</v>
+        <v>0.7591520213914436</v>
       </c>
       <c r="L5">
-        <v>0.190647320518039</v>
+        <v>0.2039504446668445</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.330667545682701</v>
+        <v>1.63905837898956</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.430028571929455</v>
+        <v>0.8481705720157322</v>
       </c>
       <c r="C6">
-        <v>0.1163989098053122</v>
+        <v>0.1007700850481044</v>
       </c>
       <c r="D6">
-        <v>0.04205753573005211</v>
+        <v>0.06192255331755092</v>
       </c>
       <c r="E6">
-        <v>0.1002972106128119</v>
+        <v>0.05655908888127392</v>
       </c>
       <c r="F6">
-        <v>0.928084828309558</v>
+        <v>0.5059807820550546</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8771274509293043</v>
+        <v>0.4085068887950563</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2540513695668665</v>
+        <v>0.7538858665978267</v>
       </c>
       <c r="L6">
-        <v>0.1903524119767752</v>
+        <v>0.202701847554664</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.331740404910732</v>
+        <v>1.638818192022143</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4424380869089646</v>
+        <v>0.8906835517095431</v>
       </c>
       <c r="C7">
-        <v>0.1168144136428069</v>
+        <v>0.1019203177415307</v>
       </c>
       <c r="D7">
-        <v>0.04270504706907019</v>
+        <v>0.06372056641771451</v>
       </c>
       <c r="E7">
-        <v>0.1003771778375473</v>
+        <v>0.05767599676964608</v>
       </c>
       <c r="F7">
-        <v>0.9270831918951785</v>
+        <v>0.5107387018112703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8746708915794237</v>
+        <v>0.4065478469884525</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2653381467110876</v>
+        <v>0.7904353394799841</v>
       </c>
       <c r="L7">
-        <v>0.1924089831580744</v>
+        <v>0.2113859045443292</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.324453933202605</v>
+        <v>1.64077853474609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4973959915839998</v>
+        <v>1.078585806746872</v>
       </c>
       <c r="C8">
-        <v>0.1186381373422165</v>
+        <v>0.1070019947290888</v>
       </c>
       <c r="D8">
-        <v>0.04553279084149864</v>
+        <v>0.07162113952657734</v>
       </c>
       <c r="E8">
-        <v>0.1008445281495263</v>
+        <v>0.06279780747136954</v>
       </c>
       <c r="F8">
-        <v>0.9238585112105682</v>
+        <v>0.5340270983999886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.86479404598035</v>
+        <v>0.3996786401258738</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3150802177987089</v>
+        <v>0.9517039429362057</v>
       </c>
       <c r="L8">
-        <v>0.2017207683886255</v>
+        <v>0.2501714382291595</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.296268040646154</v>
+        <v>1.65693197264099</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6058367801742008</v>
+        <v>1.449036916548749</v>
       </c>
       <c r="C9">
-        <v>0.1221775609763398</v>
+        <v>0.1170070703875581</v>
       </c>
       <c r="D9">
-        <v>0.05097010280109515</v>
+        <v>0.08701475442648388</v>
       </c>
       <c r="E9">
-        <v>0.1021713803384721</v>
+        <v>0.07361345926423368</v>
       </c>
       <c r="F9">
-        <v>0.9218304246864335</v>
+        <v>0.5887994224184467</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8488880017013827</v>
+        <v>0.3931056721791109</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4123613429557906</v>
+        <v>1.268607568825871</v>
       </c>
       <c r="L9">
-        <v>0.2208272049867048</v>
+        <v>0.328244688808681</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.255257870112246</v>
+        <v>1.718107837980824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6858895072660971</v>
+        <v>1.723348927115666</v>
       </c>
       <c r="C10">
-        <v>0.1247543254560171</v>
+        <v>0.1244024905741838</v>
       </c>
       <c r="D10">
-        <v>0.05489818443249561</v>
+        <v>0.09828726926873799</v>
       </c>
       <c r="E10">
-        <v>0.1033957758698918</v>
+        <v>0.08210887865020666</v>
       </c>
       <c r="F10">
-        <v>0.9229603830097588</v>
+        <v>0.6354612847587902</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8393126654137504</v>
+        <v>0.3929984813202054</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4836531176305527</v>
+        <v>1.50259242977819</v>
       </c>
       <c r="L10">
-        <v>0.2353788483306829</v>
+        <v>0.3871869192659716</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.233827271308058</v>
+        <v>1.783587220930741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.722385307784208</v>
+        <v>1.848830487434469</v>
       </c>
       <c r="C11">
-        <v>0.1259211991945008</v>
+        <v>0.1277815924776888</v>
       </c>
       <c r="D11">
-        <v>0.05667050661836726</v>
+        <v>0.1034129998369977</v>
       </c>
       <c r="E11">
-        <v>0.1040068576514059</v>
+        <v>0.08611148824943982</v>
       </c>
       <c r="F11">
-        <v>0.9240437183541133</v>
+        <v>0.6582892530480819</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8354149840221297</v>
+        <v>0.3940974061621674</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5160424854632311</v>
+        <v>1.60947095166199</v>
       </c>
       <c r="L11">
-        <v>0.2421101631597224</v>
+        <v>0.4144287169842187</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.225968220368173</v>
+        <v>1.818438722767212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7362161328598802</v>
+        <v>1.896466746550232</v>
       </c>
       <c r="C12">
-        <v>0.1263622761533014</v>
+        <v>0.1290637565318349</v>
       </c>
       <c r="D12">
-        <v>0.05733951892219835</v>
+        <v>0.1053541474594724</v>
       </c>
       <c r="E12">
-        <v>0.104246022671969</v>
+        <v>0.0876486547169435</v>
       </c>
       <c r="F12">
-        <v>0.9245358177941512</v>
+        <v>0.6671822097153139</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8340049254962807</v>
+        <v>0.3946895305968141</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5283010296031989</v>
+        <v>1.650021865463401</v>
       </c>
       <c r="L12">
-        <v>0.2446751393164277</v>
+        <v>0.4248135117062333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.223264026484543</v>
+        <v>1.832418419883282</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7332369553322451</v>
+        <v>1.886201809261678</v>
       </c>
       <c r="C13">
-        <v>0.1262673180628369</v>
+        <v>0.1287874979192551</v>
       </c>
       <c r="D13">
-        <v>0.0571955302693965</v>
+        <v>0.1049360724621238</v>
       </c>
       <c r="E13">
-        <v>0.1041941692876946</v>
+        <v>0.08731661680159775</v>
       </c>
       <c r="F13">
-        <v>0.9244261945103531</v>
+        <v>0.6652555965177456</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8343056751670161</v>
+        <v>0.3945539966911156</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5256612364970294</v>
+        <v>1.64128475885488</v>
       </c>
       <c r="L13">
-        <v>0.2441220168105218</v>
+        <v>0.4225737740438404</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.223834330453514</v>
+        <v>1.829371955644774</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7235229688530467</v>
+        <v>1.852747049594456</v>
       </c>
       <c r="C14">
-        <v>0.125957502917224</v>
+        <v>0.1278870227445807</v>
       </c>
       <c r="D14">
-        <v>0.056725589480358</v>
+        <v>0.1035726935640469</v>
       </c>
       <c r="E14">
-        <v>0.1040263784487507</v>
+        <v>0.08623751200499186</v>
       </c>
       <c r="F14">
-        <v>0.9240825630160359</v>
+        <v>0.6590157927258389</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8352976566218544</v>
+        <v>0.3941425282196889</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5170511392270498</v>
+        <v>1.612805437388545</v>
       </c>
       <c r="L14">
-        <v>0.2423208656733635</v>
+        <v>0.4152816556417207</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.225740295690258</v>
+        <v>1.819572842586979</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7175742369856835</v>
+        <v>1.832271145853525</v>
       </c>
       <c r="C15">
-        <v>0.1257676280814763</v>
+        <v>0.1273358040265364</v>
       </c>
       <c r="D15">
-        <v>0.05643745918342091</v>
+        <v>0.1027376176983381</v>
       </c>
       <c r="E15">
-        <v>0.1039246119808652</v>
+        <v>0.08557937445826624</v>
       </c>
       <c r="F15">
-        <v>0.923882739800213</v>
+        <v>0.6552266573029613</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8359138578320753</v>
+        <v>0.3939137480182495</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5117763272510558</v>
+        <v>1.595371709380771</v>
       </c>
       <c r="L15">
-        <v>0.2412196861464508</v>
+        <v>0.4108242220266192</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.226943161381456</v>
+        <v>1.813674130293037</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6835059536810775</v>
+        <v>1.715164009993771</v>
       </c>
       <c r="C16">
-        <v>0.1246779581646393</v>
+        <v>0.1241819938394713</v>
       </c>
       <c r="D16">
-        <v>0.05478206295090615</v>
+        <v>0.09795228515448429</v>
       </c>
       <c r="E16">
-        <v>0.1033569273259012</v>
+        <v>0.08185021178594454</v>
       </c>
       <c r="F16">
-        <v>0.9229010403202125</v>
+        <v>0.6340031763237306</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.839576609847299</v>
+        <v>0.3929506777338148</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4815355056018973</v>
+        <v>1.495617764302608</v>
       </c>
       <c r="L16">
-        <v>0.2349411811621849</v>
+        <v>0.3854158403507313</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.23437891586687</v>
+        <v>1.781416030759317</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6626259621274642</v>
+        <v>1.643513892576919</v>
       </c>
       <c r="C17">
-        <v>0.124008100175935</v>
+        <v>0.1222513410179289</v>
       </c>
       <c r="D17">
-        <v>0.05376277428632648</v>
+        <v>0.09501639376721016</v>
       </c>
       <c r="E17">
-        <v>0.1030225144908954</v>
+        <v>0.07959895699192643</v>
       </c>
       <c r="F17">
-        <v>0.9224446124916739</v>
+        <v>0.6214059767899087</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8419409580603769</v>
+        <v>0.3926613777743562</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4629726385188064</v>
+        <v>1.434544643458594</v>
       </c>
       <c r="L17">
-        <v>0.2311180674697937</v>
+        <v>0.3699434370751788</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.239424615939384</v>
+        <v>1.762961109398645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6506238634292743</v>
+        <v>1.602366895179983</v>
       </c>
       <c r="C18">
-        <v>0.1236223175768103</v>
+        <v>0.1211422539026898</v>
       </c>
       <c r="D18">
-        <v>0.05317513572823884</v>
+        <v>0.09332751076387069</v>
       </c>
       <c r="E18">
-        <v>0.1028352621047048</v>
+        <v>0.07831698097103512</v>
       </c>
       <c r="F18">
-        <v>0.922235673804785</v>
+        <v>0.6143099560214154</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8433439940478991</v>
+        <v>0.392602308153954</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4522918881024509</v>
+        <v>1.399457203207248</v>
       </c>
       <c r="L18">
-        <v>0.2289296326022878</v>
+        <v>0.361084005388193</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.24250464347989</v>
+        <v>1.752819592998833</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6465614738901877</v>
+        <v>1.588445705729157</v>
       </c>
       <c r="C19">
-        <v>0.1234916135818835</v>
+        <v>0.1207669594342704</v>
       </c>
       <c r="D19">
-        <v>0.05297593693371994</v>
+        <v>0.09275563000478826</v>
       </c>
       <c r="E19">
-        <v>0.1027727369326428</v>
+        <v>0.0778850914475484</v>
       </c>
       <c r="F19">
-        <v>0.922174134349838</v>
+        <v>0.6119325154449484</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8438264440853338</v>
+        <v>0.3926004200986419</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4486749220790784</v>
+        <v>1.387583652900361</v>
       </c>
       <c r="L19">
-        <v>0.2281904755096065</v>
+        <v>0.3580909908134089</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.243578034833888</v>
+        <v>1.749465550486889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6648479000901659</v>
+        <v>1.651134385911604</v>
       </c>
       <c r="C20">
-        <v>0.124079459457036</v>
+        <v>0.1224567171756377</v>
       </c>
       <c r="D20">
-        <v>0.05387142138810219</v>
+        <v>0.09532894560947369</v>
       </c>
       <c r="E20">
-        <v>0.1030575863259422</v>
+        <v>0.07983726182937545</v>
       </c>
       <c r="F20">
-        <v>0.9224876540219</v>
+        <v>0.6227313635245082</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8416848056750617</v>
+        <v>0.3926809892156626</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4649490935112226</v>
+        <v>1.441041712552476</v>
       </c>
       <c r="L20">
-        <v>0.2315239564142075</v>
+        <v>0.3715863217152844</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.238869082480164</v>
+        <v>1.764876307202456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7263759189740995</v>
+        <v>1.86257013166221</v>
       </c>
       <c r="C21">
-        <v>0.1260485248846663</v>
+        <v>0.1281514407156763</v>
       </c>
       <c r="D21">
-        <v>0.05686368047020096</v>
+        <v>0.1039731432329702</v>
       </c>
       <c r="E21">
-        <v>0.1040754521786482</v>
+        <v>0.08655387524017044</v>
       </c>
       <c r="F21">
-        <v>0.9241812741799009</v>
+        <v>0.6608416785918578</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8350044987010321</v>
+        <v>0.3942585193351533</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5195803177523715</v>
+        <v>1.621168249879901</v>
       </c>
       <c r="L21">
-        <v>0.2428494746225454</v>
+        <v>0.4174215967257879</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.225173088543499</v>
+        <v>1.82242940312733</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7666498039224052</v>
+        <v>2.001459790501542</v>
       </c>
       <c r="C22">
-        <v>0.1273307884702035</v>
+        <v>0.1318884887737823</v>
       </c>
       <c r="D22">
-        <v>0.05880687897975179</v>
+        <v>0.1096237077339879</v>
       </c>
       <c r="E22">
-        <v>0.104785918712075</v>
+        <v>0.09106951534478469</v>
       </c>
       <c r="F22">
-        <v>0.9257653160496915</v>
+        <v>0.6872067967167226</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8310227090928421</v>
+        <v>0.3963209306675211</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5552461858649167</v>
+        <v>1.739355958232807</v>
       </c>
       <c r="L22">
-        <v>0.250344418626895</v>
+        <v>0.4477830439066253</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.217806608061721</v>
+        <v>1.86463062462596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7451494730674142</v>
+        <v>1.927260658264771</v>
       </c>
       <c r="C23">
-        <v>0.1266468539490546</v>
+        <v>0.1298924109506387</v>
       </c>
       <c r="D23">
-        <v>0.05777090356400549</v>
+        <v>0.1066076351839413</v>
       </c>
       <c r="E23">
-        <v>0.1044025964409272</v>
+        <v>0.08864734560499343</v>
       </c>
       <c r="F23">
-        <v>0.9248762237614585</v>
+        <v>0.6729954909389235</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.833112705668583</v>
+        <v>0.3951219947750531</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5362143955426291</v>
+        <v>1.676229046913676</v>
       </c>
       <c r="L23">
-        <v>0.2463357401641701</v>
+        <v>0.4315389337242408</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.22159320915739</v>
+        <v>1.841668536044523</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6638433553811751</v>
+        <v>1.64768902023738</v>
       </c>
       <c r="C24">
-        <v>0.1240472000192128</v>
+        <v>0.1223638639341331</v>
       </c>
       <c r="D24">
-        <v>0.05382230712622516</v>
+        <v>0.09518764407049218</v>
       </c>
       <c r="E24">
-        <v>0.1030417147550224</v>
+        <v>0.07972948602080265</v>
       </c>
       <c r="F24">
-        <v>0.9224680283973328</v>
+        <v>0.6221317019263495</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8418004759198112</v>
+        <v>0.3926717896338943</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4640555652966327</v>
+        <v>1.438104313044221</v>
       </c>
       <c r="L24">
-        <v>0.2313404243502077</v>
+        <v>0.3708434624204813</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.23911968100424</v>
+        <v>1.764008991148017</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5764318291403754</v>
+        <v>1.348515608233754</v>
       </c>
       <c r="C25">
-        <v>0.1212241234455718</v>
+        <v>0.1142941622373925</v>
       </c>
       <c r="D25">
-        <v>0.04951081336775331</v>
+        <v>0.08285869223809783</v>
       </c>
       <c r="E25">
-        <v>0.1017685615904149</v>
+        <v>0.07059707097372225</v>
       </c>
       <c r="F25">
-        <v>0.9219190703958162</v>
+        <v>0.5729207255143933</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8528203267250802</v>
+        <v>0.3940939335736964</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3860744843158557</v>
+        <v>1.182731581564354</v>
       </c>
       <c r="L25">
-        <v>0.2155679991493287</v>
+        <v>0.3068729197880913</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.264824820660493</v>
+        <v>1.698146346369128</v>
       </c>
     </row>
   </sheetData>
